--- a/3.勤怠管理アプリ/04_外部仕様書/3.テーブル・ファイル設計/ER図.xlsx
+++ b/3.勤怠管理アプリ/04_外部仕様書/3.テーブル・ファイル設計/ER図.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KPB-036\Desktop\java研修\演習2\要件定義書\1.ショッピングサイト\04_外部仕様書\テーブル・ファイル設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\3.勤怠管理アプリ\3.勤怠管理アプリ\3.勤怠管理アプリ\04_外部仕様書\3.テーブル・ファイル設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37777C5-32BB-489A-86C0-408978B44120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30885" yWindow="0" windowWidth="17280" windowHeight="12480" activeTab="1" xr2:uid="{CCF76CFB-D2A0-4814-B888-2440D70E4E7F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14820" windowHeight="6645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">ER図!$A$1:$M$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">変更履歴!$A$1:$E$38</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>更新日</t>
     <rPh sb="0" eb="3">
@@ -103,17 +102,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>注文テーブル</t>
-    <rPh sb="0" eb="2">
-      <t>チュウモン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>外部設計書</t>
     <rPh sb="0" eb="2">
       <t>ガイブ</t>
@@ -126,11 +114,33 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>申請状態</t>
+    <rPh sb="0" eb="4">
+      <t>シンセイジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤怠情報</t>
+    <rPh sb="0" eb="4">
+      <t>キンタイジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -276,7 +286,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -298,6 +308,15 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -306,15 +325,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -327,6 +337,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -357,10 +373,10 @@
           <xdr:rowOff>1905</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>930137</xdr:colOff>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>41462</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>223879</xdr:rowOff>
+          <xdr:rowOff>218739</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -375,7 +391,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s1049"/>
+                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s1054"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -390,7 +406,7 @@
           <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="1905"/>
-              <a:ext cx="6115050" cy="685800"/>
+              <a:ext cx="6115050" cy="676275"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -414,16 +430,16 @@
   </mc:AlternateContent>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>22466</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>211455</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>241541</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>173355</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>154305</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>175259</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>621030</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>137159</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -438,8 +454,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="449352" y="1599123"/>
-          <a:ext cx="1493996" cy="1355283"/>
+          <a:off x="241541" y="868120"/>
+          <a:ext cx="1477665" cy="1375745"/>
           <a:chOff x="453162" y="1602933"/>
           <a:chExt cx="1490186" cy="1355283"/>
         </a:xfrm>
@@ -499,7 +515,7 @@
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>ユーザー</a:t>
+              <a:t>社員</a:t>
             </a:r>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
@@ -582,16 +598,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>154305</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>621030</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>97680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>74544</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>140805</xdr:rowOff>
+      <xdr:colOff>136766</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>97680</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -604,12 +620,13 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="13" idx="3"/>
+          <a:endCxn id="29" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1943348" y="2456290"/>
-          <a:ext cx="1278587" cy="3645"/>
+          <a:off x="1725930" y="1755030"/>
+          <a:ext cx="1544561" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -639,20 +656,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>25697</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>207645</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>320971</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>170870</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>171448</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>45136</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="21" name="グループ化 20">
+        <xdr:cNvPr id="10" name="グループ化 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E170987-1448-457B-8B03-3F51203541CE}"/>
@@ -663,15 +680,15 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3169278" y="1602933"/>
-          <a:ext cx="1511141" cy="1355282"/>
-          <a:chOff x="464427" y="1602933"/>
-          <a:chExt cx="1478921" cy="1360143"/>
+          <a:off x="320971" y="2777377"/>
+          <a:ext cx="1494694" cy="3011582"/>
+          <a:chOff x="455021" y="1823014"/>
+          <a:chExt cx="1486443" cy="1132981"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="22" name="正方形/長方形 21">
+          <xdr:cNvPr id="11" name="正方形/長方形 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                 <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6831ABF-4FE4-407E-842E-00264236B41D}"/>
@@ -682,8 +699,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="474204" y="1602933"/>
-            <a:ext cx="1467260" cy="356515"/>
+            <a:off x="474204" y="1823014"/>
+            <a:ext cx="1467260" cy="136433"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -724,7 +741,7 @@
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>注文</a:t>
+              <a:t>勤怠</a:t>
             </a:r>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
@@ -744,7 +761,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="23" name="正方形/長方形 22">
+          <xdr:cNvPr id="14" name="正方形/長方形 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                 <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10586130-AA88-4C0C-A2B9-9E03B033A8BC}"/>
@@ -755,8 +772,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="464427" y="1955623"/>
-            <a:ext cx="1478921" cy="1007453"/>
+            <a:off x="455021" y="1959163"/>
+            <a:ext cx="1478921" cy="996832"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -797,7 +814,7 @@
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>注文ユーザー</a:t>
+              <a:t>日付</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
               <a:solidFill>
@@ -813,12 +830,480 @@
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>注文日</a:t>
-            </a:r>
+              <a:t>勤務開始</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>勤務終了</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>残業開始</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>残業終了</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>休憩開始</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>休憩終了</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>担当部署</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>備考欄</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>勤務形態</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>申請情報</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>ID</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>（</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>FK</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>）</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>136766</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>173355</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>268605</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>137159</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="27" name="グループ化 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DA6E8C1-05E7-4454-8406-DEF16DC54CD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3252001" y="868120"/>
+          <a:ext cx="1476545" cy="1375745"/>
+          <a:chOff x="453162" y="1602933"/>
+          <a:chExt cx="1490186" cy="1355283"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="28" name="正方形/長方形 27">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{539CE790-6A03-4ED9-B82A-57C4784309EE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="457366" y="1602933"/>
+            <a:ext cx="1484077" cy="355241"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>申請情報</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>ID</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="29" name="正方形/長方形 28">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44AD7482-0CBD-4D2C-B86A-F70699556445}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="453162" y="1954363"/>
+            <a:ext cx="1490186" cy="1003853"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>社員</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>ID</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>（</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>FK</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>）</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>申請状態</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>年月</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>226530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>65019</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="直線コネクタ 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDC150B9-D88F-4839-9ACD-DDFD799AF403}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1914525" y="2122005"/>
+          <a:ext cx="1284219" cy="1126020"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1120,23 +1605,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B729E61E-B949-41F9-8A89-4E73CECF64D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="J17" activeCellId="1" sqref="A1 J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.09765625" customWidth="1"/>
-    <col min="2" max="2" width="10.69921875" customWidth="1"/>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="10.75" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
-    <col min="4" max="4" width="12.09765625" customWidth="1"/>
-    <col min="5" max="5" width="10.19921875" customWidth="1"/>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="26.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1144,7 +1629,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>5</v>
@@ -1153,7 +1638,7 @@
         <v>44463</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="15" t="s">
         <v>6</v>
       </c>
@@ -1164,294 +1649,264 @@
       </c>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="16.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
       <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="12"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="12"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="12"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="12"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="12"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="9"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="12"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="12"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="9"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="12"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="9"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="12"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="9"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="12"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="9"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="12"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="9"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="12"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="9"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="12"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="9"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="12"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="9"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="12"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="9"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="12"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="9"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="12"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="9"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="12"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="1"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="9"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="12"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="9"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="12"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="1"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="9"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="12"/>
       <c r="E38" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B36:D36"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B31:D31"/>
@@ -1459,6 +1914,36 @@
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1467,24 +1952,47 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C20FC5-7AE7-48A7-98CD-9081647BBD6C}">
-  <dimension ref="B1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:H12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.59765625" customWidth="1"/>
-    <col min="2" max="8" width="8.8984375" customWidth="1"/>
-    <col min="9" max="9" width="12.3984375" customWidth="1"/>
+    <col min="1" max="1" width="5.625" customWidth="1"/>
+    <col min="2" max="8" width="8.875" customWidth="1"/>
+    <col min="9" max="9" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B7" t="s">
-        <v>8</v>
+    <row r="1" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="D4" t="s">
+        <v>10</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="D7" s="17">
+        <v>1</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="F11" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
         <v>9</v>
       </c>
     </row>

--- a/3.勤怠管理アプリ/04_外部仕様書/3.テーブル・ファイル設計/ER図.xlsx
+++ b/3.勤怠管理アプリ/04_外部仕様書/3.テーブル・ファイル設計/ER図.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\3.勤怠管理アプリ\3.勤怠管理アプリ\3.勤怠管理アプリ\04_外部仕様書\3.テーブル・ファイル設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\worktime\3.勤怠管理アプリ\04_外部仕様書\3.テーブル・ファイル設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -119,10 +119,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>申請状態</t>
     <rPh sb="0" eb="4">
       <t>シンセイジョウタイ</t>
@@ -134,6 +130,10 @@
     <rPh sb="0" eb="4">
       <t>キンタイジョウホウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -308,14 +308,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -325,6 +322,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -337,12 +343,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -374,9 +374,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>41462</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>218739</xdr:rowOff>
+          <xdr:rowOff>211455</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -391,7 +391,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s1054"/>
+                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s1061"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -454,8 +454,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="241541" y="868120"/>
-          <a:ext cx="1477665" cy="1375745"/>
+          <a:off x="241541" y="878205"/>
+          <a:ext cx="1484389" cy="1392554"/>
           <a:chOff x="453162" y="1602933"/>
           <a:chExt cx="1490186" cy="1355283"/>
         </a:xfrm>
@@ -523,7 +523,7 @@
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>ID</a:t>
+              <a:t>ID()</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
@@ -583,12 +583,12 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>パスワード</a:t>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>password</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -680,8 +680,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="320971" y="2777377"/>
-          <a:ext cx="1494694" cy="3011582"/>
+          <a:off x="320971" y="2809874"/>
+          <a:ext cx="1505340" cy="3048001"/>
           <a:chOff x="455021" y="1823014"/>
           <a:chExt cx="1486443" cy="1132981"/>
         </a:xfrm>
@@ -1045,8 +1045,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3252001" y="868120"/>
-          <a:ext cx="1476545" cy="1375745"/>
+          <a:off x="3270491" y="878205"/>
+          <a:ext cx="1484389" cy="1392554"/>
           <a:chOff x="453162" y="1602933"/>
           <a:chExt cx="1490186" cy="1355283"/>
         </a:xfrm>
@@ -1628,7 +1628,7 @@
       <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="15" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -1639,11 +1639,11 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="14"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="16"/>
       <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1658,255 +1658,285 @@
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="14"/>
       <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="11"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="11"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="11"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="11"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="12"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="11"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="11"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="12"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="11"/>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="12"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="11"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="12"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="11"/>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="12"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="11"/>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="12"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="11"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="12"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="11"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="12"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="11"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="12"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="11"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="12"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="11"/>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="12"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="11"/>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="12"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="11"/>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="12"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="11"/>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="12"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="11"/>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="12"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="11"/>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="12"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="11"/>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="12"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="11"/>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="12"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="11"/>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="12"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="11"/>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="12"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="11"/>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="12"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="11"/>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="1"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="12"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="11"/>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="12"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="11"/>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="1"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="12"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="11"/>
       <c r="E38" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B36:D36"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B31:D31"/>
@@ -1914,36 +1944,6 @@
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1955,8 +1955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1969,28 +1969,28 @@
     <row r="1" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
         <v>10</v>
       </c>
-      <c r="H4" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="D7" s="17">
+      <c r="D7" s="7">
         <v>1</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="F11" s="17">
+      <c r="F11" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
